--- a/DateBase/orders/Nhat 48_2025-12-23.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-23.xlsx
@@ -699,6 +699,9 @@
         <v xml:space="preserve">386_菟葵绿粉 
 green_undefined_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -760,7 +763,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>053553555351010556610533105547632050</v>
+        <v>053553555351010556610533105547632055</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-23.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-23.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -703,9 +703,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>123_绣球秋红_Hydrangea_Hydrangea L._1stem</v>
+      </c>
+      <c r="F32" t="str">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L32"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -763,7 +771,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>053553555351010556610533105547632055</v>
+        <v>05355355535101055661053310554763205520</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-23.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-23.xlsx
@@ -773,6 +773,9 @@
       <c r="G2" t="str">
         <v>05355355535101055661053310554763205520</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Nhat 48_2025-12-23.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-23.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,274 +446,176 @@
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <v>484_天鹅绒_Star of Bethlehem_undefined_1bunch</v>
+        <v>138_卡罗拉_Carola_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F2" t="str">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="str">
-        <v>738_鸢尾花蓝_undefined_undefined_1bunch</v>
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
       </c>
       <c r="F3" t="str">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <v>2</v>
+      </c>
       <c r="C4" t="str">
-        <v>669_大丽花 红_undefined_undefined_5stems</v>
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F4" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="str">
-        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
       </c>
       <c r="F5" t="str">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="str">
-        <v>839_洋牡丹洋葱_undefined_undefined_1bunch</v>
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
       </c>
       <c r="F6" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
         <v>3</v>
       </c>
-    </row>
-    <row r="7">
       <c r="C7" t="str">
-        <v>650_洋牡丹婚礼白_undefined_undefined_1bunch</v>
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F7" t="str">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="str">
-        <v>643_巧克力秋英_undefined_undefined_1bunch</v>
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F8" t="str">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="str">
-        <v>734_乒乓菊红_undefined_undefined_1bunch</v>
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
       </c>
       <c r="F9" t="str">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="str">
+        <v>4</v>
+      </c>
       <c r="C10" t="str">
-        <v>550_蕾丝红色_lace flower brown_undefined_1bunch</v>
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F10" t="str">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="str">
-        <v>842_蝴蝶洋牡丹鲑鱼粉_undefined_undefined_1bunch</v>
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F11" t="str">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="str">
-        <v>421_松虫草黑色_scabiosa black_undefined_1bunch</v>
+        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F12" t="str">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="str">
-        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F13" t="str">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v>2</v>
-      </c>
       <c r="C14" t="str">
-        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
       </c>
       <c r="F14" t="str">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" t="str">
-        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
       </c>
       <c r="F15" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
         <v>5</v>
       </c>
-    </row>
-    <row r="16">
       <c r="C16" t="str">
-        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F16" t="str">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="str">
-        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+        <v>157_流沙_Quicksand_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F17" t="str">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="str">
-        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+        <v>155_曼塔_Menta_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F18" t="str">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" t="str">
-        <v>163_咖啡时间_Coffe Break_Rosa rugosa Thunb._20stems</v>
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F19" t="str">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" t="str">
-        <v>9_茶色洋桔梗_Tea Color Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>596_橄榄叶_undefined_undefined_1bunch</v>
       </c>
       <c r="F20" t="str">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
-      <c r="C21" t="str">
-        <v>7_翠绿洋桔梗_Dark Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F21" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" t="str">
-        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F22" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="C23" t="str">
-        <v>632_吸色康乃馨紫_tinted purple_undefined_20stems</v>
-      </c>
-      <c r="F23" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="C24" t="str">
-        <v>614_康乃馨绿_green_undefined_20stems</v>
-      </c>
-      <c r="F24" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" xml:space="preserve">
-      <c r="A25" t="str">
-        <v>3</v>
-      </c>
-      <c r="C25" t="str" xml:space="preserve">
-        <v xml:space="preserve">463_玉兰枝_magnolia flower
-white/purple_undefined_1bunch</v>
-      </c>
-      <c r="F25" t="str">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" xml:space="preserve">
-      <c r="A26" t="str">
-        <v>4</v>
-      </c>
-      <c r="C26" t="str" xml:space="preserve">
-        <v xml:space="preserve">463_玉兰枝_magnolia flower
-white/purple_undefined_1bunch</v>
-      </c>
-      <c r="F26" t="str">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>5</v>
-      </c>
-      <c r="C27" t="str">
-        <v>745_海芋红_Calla Lily_undefined_1bunch</v>
-      </c>
-      <c r="F27" t="str">
+      <c r="A21" t="str">
         <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="C28" t="str">
-        <v>855_海芋粉_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F28" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>6</v>
-      </c>
-      <c r="C29" t="str">
-        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F29" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" xml:space="preserve">
-      <c r="C30" t="str" xml:space="preserve">
-        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
-white_undefined_1bunch</v>
-      </c>
-      <c r="F30" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" xml:space="preserve">
-      <c r="C31" t="str" xml:space="preserve">
-        <v xml:space="preserve">386_菟葵绿粉 
-green_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F31" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="str">
-        <v>123_绣球秋红_Hydrangea_Hydrangea L._1stem</v>
-      </c>
-      <c r="F32" t="str">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L32"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -771,10 +673,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05355355535101055661053310554763205520</v>
-      </c>
-      <c r="H2" t="str">
-        <v>CNY</v>
+        <v>045100613301713131384159125830100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-23.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-23.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -612,10 +612,536 @@
       <c r="A21" t="str">
         <v>6</v>
       </c>
+      <c r="C21" t="str">
+        <v>737_木麻黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F21" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>756_雪花松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>7</v>
+      </c>
+      <c r="C28" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>107_绣球浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F29" t="str">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>106_绣球粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F30" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>100_绣球白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F31" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>756_雪花松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>8</v>
+      </c>
+      <c r="C33" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>100_绣球白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F34" t="str">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>324_小手球_Spiraea flower double petals_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>354_桔叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>756_雪花松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>9</v>
+      </c>
+      <c r="C38" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>319_尤加利叶带果_Eucalyptus leaves with small pods_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="C40" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>641_绿枫叶_maple leaf_undefined_1bunch</v>
+      </c>
+      <c r="F41" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>332_熊尾草_bear tail grass_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>10</v>
+      </c>
+      <c r="C49" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F49" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F50" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F51" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F52" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>11</v>
+      </c>
+      <c r="C55" t="str">
+        <v>470_海芋白_Calla Lily_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>12</v>
+      </c>
+      <c r="C56" t="str">
+        <v>780_贝壳草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
+      <c r="C58" t="str" xml:space="preserve">
+        <v xml:space="preserve">553_嘉兰百合
+multi-colors_ gloriosa_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>13</v>
+      </c>
+      <c r="C60" t="str">
+        <v>650_洋牡丹婚礼白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>662_大丽花 白_undefined_undefined_5stems</v>
+      </c>
+      <c r="F61" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F62" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>14</v>
+      </c>
+      <c r="C63" t="str">
+        <v>636_干花大叶白_undefined_undefined_1stem</v>
+      </c>
+      <c r="F63" t="str">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>15</v>
+      </c>
+      <c r="C64" t="str">
+        <v>636_干花大叶白_undefined_undefined_1stem</v>
+      </c>
+      <c r="F64" t="str">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>16</v>
+      </c>
+      <c r="C65" t="str">
+        <v>636_干花大叶白_undefined_undefined_1stem</v>
+      </c>
+      <c r="F65" t="str">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>17</v>
+      </c>
+      <c r="C66" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F66" t="str">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>18</v>
+      </c>
+      <c r="C69" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>756_雪花松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" xml:space="preserve">
+      <c r="C71" t="str" xml:space="preserve">
+        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
+white_undefined_1bunch</v>
+      </c>
+      <c r="F71" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F72" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" xml:space="preserve">
+      <c r="C73" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>456_蕾丝白色_lace flower white_undefined_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F75" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F76" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>707_永生吊米白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F77" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="str">
+        <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
+      </c>
+      <c r="F78" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>304_彩星 浅宝蓝_Tinted Gypso light blue_undefined_0.5kg</v>
+      </c>
+      <c r="F79" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>1</v>
+      </c>
+      <c r="C80" t="str">
+        <v>470_海芋白_Calla Lily_undefined_1bunch</v>
+      </c>
+      <c r="F80" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L81"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -673,7 +1199,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>045100613301713131384159125830100</v>
+        <v>045100613301713131384159125830102257015581037901560103090152230852553685152281016402552015225356357657065385515202055111551045100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-23.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-23.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1138,10 +1138,43 @@
       <c r="A81" t="str">
         <v>2</v>
       </c>
+      <c r="C81" t="str">
+        <v>259_诺拉_Nora_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F81" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="str">
+        <v>214_气场_Glamorous_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F82" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>3</v>
+      </c>
+      <c r="C83" t="str">
+        <v>670_大丽花 紫_undefined_undefined_5stems</v>
+      </c>
+      <c r="F83" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="str">
+        <v>662_大丽花 白_undefined_undefined_5stems</v>
+      </c>
+      <c r="F84" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L81"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L84"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1199,7 +1232,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>045100613301713131384159125830102257015581037901560103090152230852553685152281016402552015225356357657065385515202055111551045100</v>
+        <v>045100613301713131384159125830102257015581037901560103090152230852553685152281016402552015225356357657065385515202055111551045107101010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nhat 48_2025-12-23.xlsx
+++ b/DateBase/orders/Nhat 48_2025-12-23.xlsx
@@ -1234,6 +1234,9 @@
       <c r="G2" t="str">
         <v>045100613301713131384159125830102257015581037901560103090152230852553685152281016402552015225356357657065385515202055111551045107101010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
